--- a/public/data/statistic-economic/xls/ATLAS_MATRIX_For_ECONOMY.xlsx
+++ b/public/data/statistic-economic/xls/ATLAS_MATRIX_For_ECONOMY.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6360" windowWidth="28860" windowHeight="6390" tabRatio="765"/>
+    <workbookView xWindow="-15" yWindow="6360" windowWidth="28860" windowHeight="6390" tabRatio="765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NOMENCLATURE" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4317" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4297" uniqueCount="661">
   <si>
     <t>AFRILAND FIRST BANK</t>
   </si>
@@ -3131,7 +3131,7 @@
   </sheetPr>
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A34" sqref="A34:A53"/>
     </sheetView>
   </sheetViews>
@@ -6149,10 +6149,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E2:V323"/>
+  <dimension ref="E2:V306"/>
   <sheetViews>
-    <sheetView topLeftCell="A248" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H255" sqref="H255:H264"/>
+    <sheetView tabSelected="1" topLeftCell="A286" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G318" sqref="G318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9414,86 +9414,6 @@
       <c r="I306" s="61" t="str">
         <f>VLOOKUP(G306,NOMENCLATURE!$B$2:$E$83, 4,FALSE)</f>
         <v>Dons projets ou aides à l’investissement</v>
-      </c>
-    </row>
-    <row r="314" spans="6:9">
-      <c r="F314" s="88" t="s">
-        <v>316</v>
-      </c>
-      <c r="G314" s="86" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="315" spans="6:9">
-      <c r="F315" s="88" t="s">
-        <v>317</v>
-      </c>
-      <c r="G315" s="86" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="316" spans="6:9">
-      <c r="F316" s="88" t="s">
-        <v>318</v>
-      </c>
-      <c r="G316" s="86" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="317" spans="6:9">
-      <c r="F317" s="88" t="s">
-        <v>319</v>
-      </c>
-      <c r="G317" s="86" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="318" spans="6:9">
-      <c r="F318" s="88" t="s">
-        <v>320</v>
-      </c>
-      <c r="G318" s="86" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="319" spans="6:9">
-      <c r="F319" s="88" t="s">
-        <v>321</v>
-      </c>
-      <c r="G319" s="86" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="320" spans="6:9">
-      <c r="F320" s="88" t="s">
-        <v>322</v>
-      </c>
-      <c r="G320" s="86" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="321" spans="6:7">
-      <c r="F321" s="88" t="s">
-        <v>323</v>
-      </c>
-      <c r="G321" s="86" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="322" spans="6:7">
-      <c r="F322" s="88" t="s">
-        <v>324</v>
-      </c>
-      <c r="G322" s="86" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="323" spans="6:7">
-      <c r="F323" s="88" t="s">
-        <v>325</v>
-      </c>
-      <c r="G323" s="86" t="s">
-        <v>391</v>
       </c>
     </row>
   </sheetData>
